--- a/event.xlsx
+++ b/event.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Event ID</t>
   </si>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,8 +476,9 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" t="str">
+        <f>B5</f>
+        <v>Practice</v>
       </c>
       <c r="C6" s="1">
         <v>42608.770833333336</v>
@@ -490,6 +491,10 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B70" si="0">B6</f>
+        <v>Practice</v>
+      </c>
       <c r="C7" s="1">
         <v>42609.770833333336</v>
       </c>
@@ -501,6 +506,10 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C8" s="1">
         <v>42610.770833333336</v>
       </c>
@@ -512,6 +521,10 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C9" s="1">
         <v>42611.770833333336</v>
       </c>
@@ -523,6 +536,10 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C10" s="1">
         <v>42612.770833333336</v>
       </c>
@@ -534,6 +551,10 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C11" s="1">
         <v>42613.770833333336</v>
       </c>
@@ -545,6 +566,10 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C12" s="1">
         <v>42614.770833333336</v>
       </c>
@@ -556,6 +581,10 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C13" s="1">
         <v>42615.770833333336</v>
       </c>
@@ -567,6 +596,10 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C14" s="1">
         <v>42616.770833333336</v>
       </c>
@@ -578,6 +611,10 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C15" s="1">
         <v>42617.770833333336</v>
       </c>
@@ -589,6 +626,10 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C16" s="1">
         <v>42618.770833333336</v>
       </c>
@@ -600,6 +641,10 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C17" s="1">
         <v>42619.770833333336</v>
       </c>
@@ -611,6 +656,10 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C18" s="1">
         <v>42620.770833333336</v>
       </c>
@@ -622,6 +671,10 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C19" s="1">
         <v>42621.770833333336</v>
       </c>
@@ -633,6 +686,10 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C20" s="1">
         <v>42622.770833333336</v>
       </c>
@@ -644,6 +701,10 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C21" s="1">
         <v>42623.770833333336</v>
       </c>
@@ -655,6 +716,10 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C22" s="1">
         <v>42624.770833333336</v>
       </c>
@@ -666,6 +731,10 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C23" s="1">
         <v>42625.770833333336</v>
       </c>
@@ -677,6 +746,10 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C24" s="1">
         <v>42626.770833333336</v>
       </c>
@@ -688,6 +761,10 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C25" s="1">
         <v>42627.770833333336</v>
       </c>
@@ -699,6 +776,10 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C26" s="1">
         <v>42628.770833333336</v>
       </c>
@@ -710,6 +791,10 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C27" s="1">
         <v>42629.770833333336</v>
       </c>
@@ -721,6 +806,10 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C28" s="1">
         <v>42630.770833333336</v>
       </c>
@@ -732,6 +821,10 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C29" s="1">
         <v>42631.770833333336</v>
       </c>
@@ -743,6 +836,10 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C30" s="1">
         <v>42632.770833333336</v>
       </c>
@@ -754,6 +851,10 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C31" s="1">
         <v>42633.770833333336</v>
       </c>
@@ -765,6 +866,10 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C32" s="1">
         <v>42634.770833333336</v>
       </c>
@@ -776,6 +881,10 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C33" s="1">
         <v>42635.770833333336</v>
       </c>
@@ -787,6 +896,10 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C34" s="1">
         <v>42636.770833333336</v>
       </c>
@@ -798,6 +911,10 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C35" s="1">
         <v>42637.770833333336</v>
       </c>
@@ -809,6 +926,10 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C36" s="1">
         <v>42638.770833333336</v>
       </c>
@@ -820,6 +941,10 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C37" s="1">
         <v>42639.770833333336</v>
       </c>
@@ -831,6 +956,10 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C38" s="1">
         <v>42640.770833333336</v>
       </c>
@@ -842,6 +971,10 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C39" s="1">
         <v>42641.770833333336</v>
       </c>
@@ -853,6 +986,10 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C40" s="1">
         <v>42642.770833333336</v>
       </c>
@@ -864,6 +1001,10 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C41" s="1">
         <v>42643.770833333336</v>
       </c>
@@ -875,6 +1016,10 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C42" s="1">
         <v>42644.770833333336</v>
       </c>
@@ -886,6 +1031,10 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C43" s="1">
         <v>42645.770833333336</v>
       </c>
@@ -897,6 +1046,10 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C44" s="1">
         <v>42646.770833333336</v>
       </c>
@@ -908,6 +1061,10 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C45" s="1">
         <v>42647.770833333336</v>
       </c>
@@ -919,6 +1076,10 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C46" s="1">
         <v>42648.770833333336</v>
       </c>
@@ -930,6 +1091,10 @@
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C47" s="1">
         <v>42649.770833333336</v>
       </c>
@@ -941,6 +1106,10 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C48" s="1">
         <v>42650.770833333336</v>
       </c>
@@ -952,6 +1121,10 @@
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C49" s="1">
         <v>42651.770833333336</v>
       </c>
@@ -963,6 +1136,10 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C50" s="1">
         <v>42652.770833333336</v>
       </c>
@@ -974,6 +1151,10 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C51" s="1">
         <v>42653.770833333336</v>
       </c>
@@ -985,6 +1166,10 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C52" s="1">
         <v>42654.770833333336</v>
       </c>
@@ -996,6 +1181,10 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C53" s="1">
         <v>42655.770833333336</v>
       </c>
@@ -1007,6 +1196,10 @@
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C54" s="1">
         <v>42656.770833333336</v>
       </c>
@@ -1018,6 +1211,10 @@
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C55" s="1">
         <v>42657.770833333336</v>
       </c>
@@ -1029,6 +1226,10 @@
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C56" s="1">
         <v>42658.770833333336</v>
       </c>
@@ -1040,6 +1241,10 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C57" s="1">
         <v>42659.770833333336</v>
       </c>
@@ -1051,6 +1256,10 @@
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C58" s="1">
         <v>42660.770833333336</v>
       </c>
@@ -1062,6 +1271,10 @@
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C59" s="1">
         <v>42661.770833333336</v>
       </c>
@@ -1073,6 +1286,10 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C60" s="1">
         <v>42662.770833333336</v>
       </c>
@@ -1084,6 +1301,10 @@
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C61" s="1">
         <v>42663.770833333336</v>
       </c>
@@ -1095,6 +1316,10 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C62" s="1">
         <v>42664.770833333336</v>
       </c>
@@ -1106,6 +1331,10 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C63" s="1">
         <v>42665.770833333336</v>
       </c>
@@ -1117,6 +1346,10 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C64" s="1">
         <v>42666.770833333336</v>
       </c>
@@ -1128,6 +1361,10 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C65" s="1">
         <v>42667.770833333336</v>
       </c>
@@ -1139,6 +1376,10 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C66" s="1">
         <v>42668.770833333336</v>
       </c>
@@ -1150,6 +1391,10 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C67" s="1">
         <v>42669.770833333336</v>
       </c>
@@ -1161,6 +1406,10 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C68" s="1">
         <v>42670.770833333336</v>
       </c>
@@ -1172,6 +1421,10 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C69" s="1">
         <v>42671.770833333336</v>
       </c>
@@ -1183,6 +1436,10 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="str">
+        <f t="shared" si="0"/>
+        <v>Practice</v>
+      </c>
       <c r="C70" s="1">
         <v>42672.770833333336</v>
       </c>
@@ -1194,11 +1451,718 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="str">
+        <f t="shared" ref="B71:B115" si="1">B70</f>
+        <v>Practice</v>
+      </c>
       <c r="C71" s="1">
         <v>42673.770833333336</v>
       </c>
       <c r="D71" s="1">
         <v>42673.833333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42674.770833333336</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42674.833333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42675.770833333336</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42675.833333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ref="A74:A115" si="2">A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42676.770833333336</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42676.833333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42677.770833333336</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42677.833333333336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42678.770833333336</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42678.833333333336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42679.770833333336</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42679.833333333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42680.770833333336</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42680.833333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C79" s="1">
+        <v>42681.770833333336</v>
+      </c>
+      <c r="D79" s="1">
+        <v>42681.833333333336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42682.770833333336</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42682.833333333336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42683.770833333336</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42683.833333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42684.770833333336</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42684.833333333336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42685.770833333336</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42685.833333333336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42686.770833333336</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42686.833333333336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42687.770833333336</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42687.833333333336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42688.770833333336</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42688.833333333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42689.770833333336</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42689.833333333336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42690.770833333336</v>
+      </c>
+      <c r="D88" s="1">
+        <v>42690.833333333336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42691.770833333336</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42691.833333333336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42692.770833333336</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42692.833333333336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42693.770833333336</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42693.833333333336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42694.770833333336</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42694.833333333336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C93" s="1">
+        <v>42695.770833333336</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42695.833333333336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C94" s="1">
+        <v>42696.770833333336</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42696.833333333336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42697.770833333336</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42697.833333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C96" s="1">
+        <v>42698.770833333336</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42698.833333333336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42699.770833333336</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42699.833333333336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42700.770833333336</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42700.833333333336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C99" s="1">
+        <v>42701.770833333336</v>
+      </c>
+      <c r="D99" s="1">
+        <v>42701.833333333336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42702.770833333336</v>
+      </c>
+      <c r="D100" s="1">
+        <v>42702.833333333336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42703.770833333336</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42703.833333333336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42704.770833333336</v>
+      </c>
+      <c r="D102" s="1">
+        <v>42704.833333333336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42705.770833333336</v>
+      </c>
+      <c r="D103" s="1">
+        <v>42705.833333333336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42706.770833333336</v>
+      </c>
+      <c r="D104" s="1">
+        <v>42706.833333333336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42707.770833333336</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42707.833333333336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42708.770833333336</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42708.833333333336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42709.770833333336</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42709.833333333336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C108" s="1">
+        <v>42710.770833333336</v>
+      </c>
+      <c r="D108" s="1">
+        <v>42710.833333333336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42711.770833333336</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42711.833333333336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42712.770833333336</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42712.833333333336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C111" s="1">
+        <v>42713.770833333336</v>
+      </c>
+      <c r="D111" s="1">
+        <v>42713.833333333336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C112" s="1">
+        <v>42714.770833333336</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42714.833333333336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42715.770833333336</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42715.833333333336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42716.770833333336</v>
+      </c>
+      <c r="D114" s="1">
+        <v>42716.833333333336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Practice</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42717.770833333336</v>
+      </c>
+      <c r="D115" s="1">
+        <v>42717.833333333336</v>
       </c>
     </row>
   </sheetData>

--- a/event.xlsx
+++ b/event.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\ND '16-'17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>Event ID</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Practice</t>
+  </si>
+  <si>
+    <t>Game</t>
   </si>
 </sst>
 </file>
@@ -393,13 +396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,9 +614,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>42617.770833333336</v>
@@ -626,9 +628,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B16" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>42618.770833333336</v>
@@ -701,9 +702,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>42623.770833333336</v>
@@ -716,9 +716,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="1">
         <v>42624.770833333336</v>
@@ -806,9 +805,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>42630.770833333336</v>
@@ -821,9 +819,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>42631.770833333336</v>
@@ -911,9 +908,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>42637.770833333336</v>
@@ -926,9 +922,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="1">
         <v>42638.770833333336</v>
@@ -1016,9 +1011,8 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>42644.770833333336</v>
@@ -1031,9 +1025,8 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43" s="1">
         <v>42645.770833333336</v>
@@ -1121,9 +1114,8 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B49" t="s">
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>42651.770833333336</v>
@@ -1136,9 +1128,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>42652.770833333336</v>
@@ -1181,9 +1172,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B53" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="1">
         <v>42655.770833333336</v>
@@ -1196,9 +1186,8 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54" s="1">
         <v>42656.770833333336</v>
@@ -1226,9 +1215,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B56" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>42658.770833333336</v>
@@ -1241,9 +1229,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>42659.770833333336</v>
@@ -1436,9 +1423,8 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
-        <f t="shared" si="0"/>
-        <v>Practice</v>
+      <c r="B70" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>42672.770833333336</v>
@@ -1451,9 +1437,8 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" ref="B71:B115" si="1">B70</f>
-        <v>Practice</v>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71" s="1">
         <v>42673.770833333336</v>
@@ -1467,7 +1452,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B71:B115" si="1">B71</f>
         <v>Practice</v>
       </c>
       <c r="C72" s="1">
@@ -1546,9 +1531,8 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B77" t="s">
+        <v>5</v>
       </c>
       <c r="C77" s="1">
         <v>42679.770833333336</v>
@@ -1562,9 +1546,8 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78" s="1">
         <v>42680.770833333336</v>
@@ -1658,9 +1641,8 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B84" t="s">
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <v>42686.770833333336</v>
@@ -1674,9 +1656,8 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85" s="1">
         <v>42687.770833333336</v>
@@ -1770,9 +1751,8 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B91" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B91" t="s">
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>42693.770833333336</v>
@@ -1786,9 +1766,8 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B92" t="s">
+        <v>4</v>
       </c>
       <c r="C92" s="1">
         <v>42694.770833333336</v>
@@ -1882,9 +1861,8 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B98" t="s">
+        <v>5</v>
       </c>
       <c r="C98" s="1">
         <v>42700.770833333336</v>
@@ -1898,9 +1876,8 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" t="str">
-        <f t="shared" si="1"/>
-        <v>Practice</v>
+      <c r="B99" t="s">
+        <v>4</v>
       </c>
       <c r="C99" s="1">
         <v>42701.770833333336</v>
